--- a/Assets/Data/Data.xlsx
+++ b/Assets/Data/Data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UnityRenpy\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDCCCA-DB6F-4669-AEBE-25F2B6F51B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4545" windowWidth="26385" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="3" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="1" r:id="rId2"/>
+    <sheet name="Character" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +27,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbno</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>사오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리우스 스쿼드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saori--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterEmotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>반갑다. 선생.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mika</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,13 +136,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -360,33 +434,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395B9D92-E9E8-4B32-A0F7-FD72D040C938}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.125" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="5" width="33.125" customWidth="1"/>
+    <col min="6" max="6" width="95.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7E6473-B8FC-46A6-A735-CF111FE62C7D}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Data/Data.xlsx
+++ b/Assets/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UnityRenpy\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDCCCA-DB6F-4669-AEBE-25F2B6F51B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D8215D-45D3-4546-B2C3-B313836C30F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="4545" windowWidth="26385" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>사오리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>saori--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CharacterEmotion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +89,14 @@
   </si>
   <si>
     <t>mika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterSlotNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saori</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,58 +463,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.125" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="5" width="33.125" customWidth="1"/>
-    <col min="6" max="6" width="95.125" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="5" max="6" width="33.125" customWidth="1"/>
+    <col min="7" max="7" width="95.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>10001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +534,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -568,13 +578,13 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
